--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceeee95e663727bb/Documents/OOL Research/MS Thesis/Document Working Versions/Thesis Working Versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{B4029A57-923B-44AC-BDE1-28A2D73F694F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861B0CBE-248D-46D4-AF52-A1DA1B97086C}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{B4029A57-923B-44AC-BDE1-28A2D73F694F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{613196A3-CE6A-4C93-855B-0F19E2FE4050}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2AEE14A2-6608-4F99-BBB2-27A1B2D62798}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2AEE14A2-6608-4F99-BBB2-27A1B2D62798}"/>
   </bookViews>
   <sheets>
     <sheet name="weight" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="112">
   <si>
     <t>Display Projector Power Model</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>Inputs</t>
+  </si>
+  <si>
+    <t>Weight (projector)</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,13 +827,6 @@
     <xf numFmtId="2" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1535,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704CB901-37C1-462B-A84C-56456E001ECC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1548,11 +1544,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1569,7 +1565,7 @@
       <c r="A3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="72">
         <v>2000</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1580,7 +1576,7 @@
       <c r="A4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="72">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1621,14 +1617,25 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="42">
-        <f>B5+B6+B7</f>
-        <v>42</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="B9" s="42">
+        <f>B5+B6+B7+B8</f>
+        <v>43</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1641,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA69BE-9B20-4961-AFB3-A71CD72919DC}">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:H20"/>
+    <sheetView topLeftCell="J23" zoomScale="74" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1667,7 +1674,7 @@
     <col min="20" max="16384" width="12" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E1" s="42" t="s">
         <v>84</v>
       </c>
@@ -1687,7 +1694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:13" x14ac:dyDescent="0.35">
       <c r="F2" s="65">
         <v>-26.667000000000002</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E3" s="65">
         <v>16.667000000000002</v>
       </c>
@@ -1739,7 +1746,7 @@
       </c>
       <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E4" s="65">
         <v>0</v>
       </c>
@@ -1766,7 +1773,7 @@
       </c>
       <c r="M4" s="25"/>
     </row>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E5" s="65">
         <v>-16.667000000000002</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.35">
       <c r="J6" s="21" t="s">
         <v>26</v>
       </c>
@@ -1803,7 +1810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E7" s="42" t="s">
         <v>85</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
       <c r="F8" s="65">
         <v>-26.667000000000002</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E9" s="65">
         <v>16.667000000000002</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>17.294345748796204</v>
       </c>
     </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E10" s="65">
         <v>0</v>
       </c>
@@ -1888,9 +1895,8 @@
       <c r="M10" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="71"/>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E11" s="65">
         <v>-16.667000000000002</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:13" x14ac:dyDescent="0.35">
       <c r="J12" s="21" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E13" s="42" t="s">
         <v>86</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
       <c r="F14" s="65">
         <v>-26.667000000000002</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E15" s="65">
         <v>16.667000000000002</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E16" s="65">
         <v>0</v>
       </c>
@@ -2137,19 +2143,19 @@
       <c r="K25" s="50"/>
       <c r="L25" s="55"/>
       <c r="M25" s="50"/>
-      <c r="O25" s="76" t="s">
+      <c r="O25" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="76" t="s">
+      <c r="P25" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="Q25" s="76" t="s">
+      <c r="Q25" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="76" t="s">
+      <c r="R25" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="S25" s="76" t="s">
+      <c r="S25" s="73" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2355,16 +2361,16 @@
         <v>3.369082656296986E-4</v>
       </c>
       <c r="N31" s="31"/>
-      <c r="O31" s="76" t="s">
+      <c r="O31" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="P31" s="76" t="s">
+      <c r="P31" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="76" t="s">
+      <c r="Q31" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="76" t="s">
+      <c r="R31" s="73" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2988,14 +2994,9 @@
         <v>0.58647501150954018</v>
       </c>
       <c r="L49" s="8"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
     </row>
     <row r="50" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="72"/>
+      <c r="Q50" s="22"/>
     </row>
     <row r="51" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="64" t="s">
@@ -3013,9 +3014,7 @@
       <c r="K51" s="60"/>
       <c r="L51" s="62"/>
       <c r="M51" s="60"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="72"/>
+      <c r="Q51" s="22"/>
     </row>
     <row r="52" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="36" t="s">
@@ -3034,9 +3033,7 @@
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
       <c r="J52" s="43"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="72"/>
+      <c r="Q52" s="22"/>
     </row>
     <row r="53" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
@@ -3057,9 +3054,6 @@
       <c r="H53" s="65">
         <v>26.667000000000002</v>
       </c>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
     </row>
     <row r="54" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
@@ -3086,9 +3080,7 @@
         <f>B61</f>
         <v>6.7625000000000001E-6</v>
       </c>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="73"/>
+      <c r="Q54" s="20"/>
     </row>
     <row r="55" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
@@ -3117,9 +3109,7 @@
       </c>
       <c r="J55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="73"/>
+      <c r="Q55" s="20"/>
     </row>
     <row r="56" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
@@ -3156,9 +3146,7 @@
         <v>18</v>
       </c>
       <c r="M56" s="22"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="73"/>
+      <c r="Q56" s="20"/>
     </row>
     <row r="57" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="21" t="s">
@@ -3177,9 +3165,7 @@
         <f>AVERAGE(F60:H62)</f>
         <v>7.9573105155190699E-5</v>
       </c>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="73"/>
+      <c r="Q57" s="20"/>
     </row>
     <row r="58" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
@@ -3372,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A1BA73-38BA-4843-9594-17F8386333DA}">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="J27" zoomScale="62" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
